--- a/30Oct_Sales.xlsx
+++ b/30Oct_Sales.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t xml:space="preserve">OrderID</t>
   </si>
@@ -87,7 +87,10 @@
     <t xml:space="preserve">Laptop</t>
   </si>
   <si>
-    <t xml:space="preserve">Earbuds</t>
+    <t xml:space="preserve">Shirt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clothes</t>
   </si>
   <si>
     <t xml:space="preserve">Tablet</t>
@@ -338,7 +341,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -371,7 +374,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45752</v>
+        <v>45327</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
@@ -388,7 +391,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45753</v>
+        <v>45154</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
@@ -405,7 +408,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45753</v>
+        <v>45647</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
@@ -439,7 +442,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45755</v>
+        <v>45688</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>8</v>
@@ -456,7 +459,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45755</v>
+        <v>44842</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>13</v>
@@ -481,7 +484,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -545,13 +548,13 @@
         <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>1999</v>
+        <v>899</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -559,7 +562,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>19</v>
@@ -576,10 +579,10 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>500</v>
@@ -590,13 +593,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>7000</v>
@@ -634,7 +637,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -642,7 +645,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -650,7 +653,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -658,7 +661,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -666,15 +669,15 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
